--- a/data/trans_dic/P62A$jubilacion-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P62A$jubilacion-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.8077434003769984</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.5667624598291884</v>
+        <v>0.5667624598291883</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.4353839274461122</v>
@@ -697,7 +697,7 @@
         <v>0.6268279484902478</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.3492231380738191</v>
+        <v>0.3492231380738192</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7334721226792209</v>
+        <v>0.74340029755105</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5527304761338742</v>
+        <v>0.5586036128162806</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6838727489400874</v>
+        <v>0.6938060962727518</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3892178401965159</v>
+        <v>0.4182922018929501</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2814292850258196</v>
+        <v>0.2676108361765293</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2596377013084029</v>
+        <v>0.2825825895245378</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2899889203267881</v>
+        <v>0.305834568962354</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0916487639250629</v>
+        <v>0.09410995113660309</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5834506518381529</v>
+        <v>0.5792208517598493</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.4502492950855919</v>
+        <v>0.461361614762716</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.5348375913398351</v>
+        <v>0.5267864397599705</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2568354029092005</v>
+        <v>0.2587209567060218</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9349830729071099</v>
+        <v>0.9422580375146934</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7944878690908941</v>
+        <v>0.7801793639040875</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8991487599668688</v>
+        <v>0.8994711409292825</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7413800117836058</v>
+        <v>0.7483263851212015</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6047865990671802</v>
+        <v>0.6071665120976446</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4971252715634069</v>
+        <v>0.5230817254840233</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.576271157015539</v>
+        <v>0.5867849377323741</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2825064191540628</v>
+        <v>0.2827576198227599</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7768330151900302</v>
+        <v>0.7798724104152471</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6321534484892241</v>
+        <v>0.624843729898901</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.7140098040116746</v>
+        <v>0.7179547000168391</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4464151823667979</v>
+        <v>0.4534398081274872</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7574187666839489</v>
+        <v>0.7571748003683431</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6314879449353386</v>
+        <v>0.6281377817301814</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7190749687946079</v>
+        <v>0.715891717717583</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5722137922291661</v>
+        <v>0.5776381935117206</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1702356376376581</v>
+        <v>0.1619643807268793</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0940382456881145</v>
+        <v>0.09014841282500234</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1951678074873307</v>
+        <v>0.1975743283709772</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2002698851734018</v>
+        <v>0.202727427445424</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5307210339650481</v>
+        <v>0.5288376225758963</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4260779796606988</v>
+        <v>0.4249093368654247</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.5351529348262247</v>
+        <v>0.5326264083022004</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.4191531217296642</v>
+        <v>0.4179172238782657</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8928633063173047</v>
+        <v>0.8909104041601441</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7960141917004571</v>
+        <v>0.7980170791728781</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8496183212774023</v>
+        <v>0.8516773109607619</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7310143702259511</v>
+        <v>0.7386642978613597</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3765022270153322</v>
+        <v>0.3600744598318918</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2439119823884263</v>
+        <v>0.2452909948159389</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.394346858321467</v>
+        <v>0.3976565841745315</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3207952973025011</v>
+        <v>0.3231262280256961</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6710428231411339</v>
+        <v>0.6717663470028311</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5706501018545156</v>
+        <v>0.5673614776369394</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.6619646626570309</v>
+        <v>0.6660161649644688</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.5253478931228182</v>
+        <v>0.5256616318080151</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.6185821011887316</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.3581225145446877</v>
+        <v>0.3581225145446878</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.6591760739802913</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8339064181155569</v>
+        <v>0.8340850588110844</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6416522390740642</v>
+        <v>0.6462070983082306</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8320767382827112</v>
+        <v>0.8348771329458307</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5207780025902488</v>
+        <v>0.5272404399755408</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2602946164030115</v>
+        <v>0.2585581106007283</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2546014090544828</v>
+        <v>0.2491655942954849</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5076983754986018</v>
+        <v>0.5103223912904479</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2800658031809404</v>
+        <v>0.2878828605611642</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5788593991567531</v>
+        <v>0.5728507614398284</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.474031489773345</v>
+        <v>0.4923558360911488</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7048210663839092</v>
+        <v>0.7116401264907107</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4284434354888475</v>
+        <v>0.419665873617284</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9637158602812708</v>
+        <v>0.9715649858079649</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8562568555553387</v>
+        <v>0.8584409728967112</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9632947970817338</v>
+        <v>0.9635849759626854</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6859228439686766</v>
+        <v>0.6831251688392911</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4955050516871842</v>
+        <v>0.4872071648276187</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.486115064840717</v>
+        <v>0.476077607841286</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7323092313511362</v>
+        <v>0.7315167327781984</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4260178951489724</v>
+        <v>0.4398617220454061</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7363535395580043</v>
+        <v>0.7395540945844148</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6525101732650872</v>
+        <v>0.654971938024275</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.8386207925407766</v>
+        <v>0.841439238013598</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5465060867887754</v>
+        <v>0.5393634080967913</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.8353016198308696</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8684450383621307</v>
+        <v>0.8684450383621306</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.4440723134239977</v>
@@ -1105,7 +1105,7 @@
         <v>0.6798441808578096</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.7035940209169981</v>
+        <v>0.703594020916998</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8351880469612339</v>
+        <v>0.8368703327748485</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6727853794908636</v>
+        <v>0.6730462262381681</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7415472065670969</v>
+        <v>0.7399158874295027</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7529329899739454</v>
+        <v>0.7770958271252729</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3310008096097746</v>
+        <v>0.3244560190488973</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3248253493578698</v>
+        <v>0.3351160852483478</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3537690351519519</v>
+        <v>0.369990171729469</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4607601025095481</v>
+        <v>0.4585161889652097</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.6082288132119975</v>
+        <v>0.5992308160747633</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5226496259979487</v>
+        <v>0.5290964619555446</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5990277231486348</v>
+        <v>0.6053196204320346</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.6413491354242267</v>
+        <v>0.6443398709500424</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9626133231768018</v>
+        <v>0.9715481763494161</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8493059166339844</v>
+        <v>0.8466512951327766</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8989578915098601</v>
+        <v>0.9051215493817463</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9349359930311412</v>
+        <v>0.946794236135958</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5619261523669482</v>
+        <v>0.5651887511962232</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.521607683913943</v>
+        <v>0.5253360284594673</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6071879307447928</v>
+        <v>0.622759792052908</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6003566340299636</v>
+        <v>0.6088944984835041</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7671422620437529</v>
+        <v>0.7571320176403129</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6678310343275329</v>
+        <v>0.6704123914157586</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.744460047089097</v>
+        <v>0.7461013361437935</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.760607586846056</v>
+        <v>0.755695201358401</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.828499815619858</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.4418527115006519</v>
+        <v>0.4418527115006518</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.3709126738160311</v>
@@ -1241,7 +1241,7 @@
         <v>0.5720821670670071</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.3767680491897872</v>
+        <v>0.3767680491897871</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7737916663487558</v>
+        <v>0.7662064483226904</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6798829114674118</v>
+        <v>0.682117013418108</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7147898315891736</v>
+        <v>0.7088908794248417</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3168928879966886</v>
+        <v>0.3191776029198591</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2099155761924589</v>
+        <v>0.2239380922230302</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2513420140108154</v>
+        <v>0.2495413251127177</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1660571553560835</v>
+        <v>0.1717644525708164</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2448134140782467</v>
+        <v>0.2476061193642934</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.536888173732826</v>
+        <v>0.5446875552920225</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.5068279865706744</v>
+        <v>0.5123201673609734</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4729502118752919</v>
+        <v>0.4772871816311418</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3099788681356824</v>
+        <v>0.305425507162784</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9585003017254543</v>
+        <v>0.9495287791350798</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9137112106539733</v>
+        <v>0.9146991226384735</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.906690522941082</v>
+        <v>0.9087591149608961</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5577971020945423</v>
+        <v>0.5735754320988025</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5507106385287829</v>
+        <v>0.5533212366266372</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5377566290058717</v>
+        <v>0.5481284879035403</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4056971987300562</v>
+        <v>0.4159853844517458</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4179042904000108</v>
+        <v>0.4200440496108912</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7559869002675204</v>
+        <v>0.7588086804516975</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7125238844040825</v>
+        <v>0.7066540581718783</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.6538336667400857</v>
+        <v>0.6552441991021538</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4563745665573171</v>
+        <v>0.4474730456113699</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.8668826536622021</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.5956136529243002</v>
+        <v>0.5956136529243004</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.312856030110195</v>
@@ -1365,7 +1365,7 @@
         <v>0.3383132547552288</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.2117887606385331</v>
+        <v>0.2117887606385332</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.6859095933212124</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8992341547185027</v>
+        <v>0.8984981669415292</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7157071033527392</v>
+        <v>0.7160335811744947</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7643968562221669</v>
+        <v>0.7710543427274332</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5166794478061871</v>
+        <v>0.5113990288257324</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1934617468160491</v>
+        <v>0.181770851190765</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2043881521424971</v>
+        <v>0.215962315262712</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2001608668282286</v>
+        <v>0.1978294165634819</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1484258944069771</v>
+        <v>0.1484123125161038</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.5965950128728662</v>
+        <v>0.5797647896051972</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.5161817467684116</v>
+        <v>0.5201359114287125</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.5721524188003875</v>
+        <v>0.5784450036071366</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3683923534035781</v>
+        <v>0.370631938064125</v>
       </c>
     </row>
     <row r="21">
@@ -1435,37 +1435,37 @@
         <v>1</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9163999845853886</v>
+        <v>0.905091319637476</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9294164073791654</v>
+        <v>0.9332197150077289</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.6725477911105504</v>
+        <v>0.6736893764913161</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4626314659347761</v>
+        <v>0.4560723109453045</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4585260513616626</v>
+        <v>0.4467737248489218</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5086473256942012</v>
+        <v>0.504257494627056</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2810493255078325</v>
+        <v>0.28361349866299</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.77713246746077</v>
+        <v>0.761502106972932</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.6793502857648747</v>
+        <v>0.6883495788149068</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.7492449845166506</v>
+        <v>0.762974456025832</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4835879961722533</v>
+        <v>0.483995959882664</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.8759332847875372</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.6407138982881295</v>
+        <v>0.6407138982881296</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.4085144825465087</v>
@@ -1501,7 +1501,7 @@
         <v>0.4526067144352979</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.5162166802853143</v>
+        <v>0.5162166802853142</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.6954679722190947</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8857760901947888</v>
+        <v>0.8890244840942579</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6992406575543537</v>
+        <v>0.7033842331301008</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8075351541569905</v>
+        <v>0.8064248503774821</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5662665746545585</v>
+        <v>0.5732807414808243</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3200631314045959</v>
+        <v>0.3255704643918516</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3056126356567308</v>
+        <v>0.3046716871630121</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3715279097708728</v>
+        <v>0.3667865597213488</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.4494307412249566</v>
+        <v>0.4565421482665083</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.6335695992541077</v>
+        <v>0.6344602268964323</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.5314859879066138</v>
+        <v>0.5318635304196618</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.6008391962573403</v>
+        <v>0.6049285601852633</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.5361573374716513</v>
+        <v>0.5385034014033441</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9676480781246518</v>
+        <v>0.9679130835024184</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8364204572871925</v>
+        <v>0.8408802298944509</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9232015364001632</v>
+        <v>0.9286939770716881</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7078032486314505</v>
+        <v>0.7075324583980727</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4958870512543435</v>
+        <v>0.5069373824477866</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4811987262733499</v>
+        <v>0.4789837075885794</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.5430145111590003</v>
+        <v>0.5403067830804242</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.5763340020804409</v>
+        <v>0.5857961471893933</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.7568842598848969</v>
+        <v>0.7477920649976293</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.6480579507206297</v>
+        <v>0.6476348438332098</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.7204130336692028</v>
+        <v>0.720142561084988</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.6259034760399163</v>
+        <v>0.6244170976155219</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.4539334874350178</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.1413803707681273</v>
+        <v>0.1413803707681274</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.6857715161071599</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.7940778396399035</v>
+        <v>0.7827826032905251</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.6991591264837782</v>
+        <v>0.7013132784246671</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.7371730005586408</v>
+        <v>0.7379514537503837</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1096357781026874</v>
+        <v>0.1100723470329645</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.3710548927068558</v>
+        <v>0.369912185896495</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.3041155489028951</v>
+        <v>0.3009304237351147</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.378622839594102</v>
+        <v>0.3725692775194155</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1039566006544765</v>
+        <v>0.1068464385260772</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.6333995492712471</v>
+        <v>0.6278500572177784</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.5420557785123777</v>
+        <v>0.5356578598161572</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.5899526965517631</v>
+        <v>0.588044342621224</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1191891482186179</v>
+        <v>0.1166803044624307</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.904180277124466</v>
+        <v>0.9035886800413445</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.8298269408124009</v>
+        <v>0.8320376851896</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.8529684751651669</v>
+        <v>0.8516458915880174</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1918177767777539</v>
+        <v>0.1957305236064769</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.5582268176712856</v>
+        <v>0.5491255159929181</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.4686898345816679</v>
+        <v>0.4555528354036179</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.5388445729879808</v>
+        <v>0.533462258160008</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1870647712152924</v>
+        <v>0.1828691274641221</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.7410682085995546</v>
+        <v>0.735580970229509</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.6522859183638374</v>
+        <v>0.6480035027803648</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.6878508230029431</v>
+        <v>0.6952236569402152</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1773575887796758</v>
+        <v>0.1776186720817397</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.8666245858242334</v>
+        <v>0.8659715833808598</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.7351277119032116</v>
+        <v>0.7331375675889042</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.8084283891039097</v>
+        <v>0.8080205833460281</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.4943884720515848</v>
+        <v>0.4926624636743806</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.35028840902277</v>
+        <v>0.3528436991532604</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.3232415195280267</v>
+        <v>0.3214452472318024</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.3941497495051181</v>
+        <v>0.3929548177986558</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.295365616729426</v>
+        <v>0.2962072901321138</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.6468242361207818</v>
+        <v>0.6434323146034792</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.5512540068406655</v>
+        <v>0.5532218172313791</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.626063172720514</v>
+        <v>0.6295766450838158</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.4069880697762037</v>
+        <v>0.4062266150822802</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.9107012951576557</v>
+        <v>0.9116667862157328</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.7962191315817851</v>
+        <v>0.7933918291184787</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.8607332809633877</v>
+        <v>0.8614011062200717</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.5522007577735325</v>
+        <v>0.5548775517660282</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.4350893710054947</v>
+        <v>0.4343306612705364</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.3940327921908051</v>
+        <v>0.3929030334993346</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.4696533886420135</v>
+        <v>0.469747276393998</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.345808937132716</v>
+        <v>0.3455023967037028</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.6967245768226348</v>
+        <v>0.6983512560598782</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.6029920275792126</v>
+        <v>0.6041042273084907</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.6776167651800175</v>
+        <v>0.6767869663156516</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.4479586011921285</v>
+        <v>0.4489520418757255</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>38716</v>
+        <v>39240</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>42053</v>
+        <v>42500</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>39837</v>
+        <v>40416</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>9851</v>
+        <v>10587</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>9996</v>
+        <v>9505</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>17866</v>
+        <v>19445</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>15942</v>
+        <v>16813</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2874</v>
+        <v>2952</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>51520</v>
+        <v>51147</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>65239</v>
+        <v>66849</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>60558</v>
+        <v>59646</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>14556</v>
+        <v>14663</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>49353</v>
+        <v>49737</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>60447</v>
+        <v>59358</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>52377</v>
+        <v>52396</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>18764</v>
+        <v>18940</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>21481</v>
+        <v>21565</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>34209</v>
+        <v>35995</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>31681</v>
+        <v>32259</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>8861</v>
+        <v>8868</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>68597</v>
+        <v>68865</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>91597</v>
+        <v>90537</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>80845</v>
+        <v>81292</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>25300</v>
+        <v>25698</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>91592</v>
+        <v>91562</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>83575</v>
+        <v>83132</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>106834</v>
+        <v>106361</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>81861</v>
+        <v>82637</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>13484</v>
+        <v>12829</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>8359</v>
+        <v>8013</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>17884</v>
+        <v>18104</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>25432</v>
+        <v>25744</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>106214</v>
+        <v>105837</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>94261</v>
+        <v>94003</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>128546</v>
+        <v>127939</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>113192</v>
+        <v>112858</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>107970</v>
+        <v>107734</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>105349</v>
+        <v>105614</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>126229</v>
+        <v>126535</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>104579</v>
+        <v>105673</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>29821</v>
+        <v>28520</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>21680</v>
+        <v>21803</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>36135</v>
+        <v>36438</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>40737</v>
+        <v>41033</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>134297</v>
+        <v>134442</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>126245</v>
+        <v>125517</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>159007</v>
+        <v>159980</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>141870</v>
+        <v>141954</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>62316</v>
+        <v>62330</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>52772</v>
+        <v>53147</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>74838</v>
+        <v>75090</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>46917</v>
+        <v>47500</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>17300</v>
+        <v>17185</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>19238</v>
+        <v>18827</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>40563</v>
+        <v>40772</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>24115</v>
+        <v>24788</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>81730</v>
+        <v>80882</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>74805</v>
+        <v>77696</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>119705</v>
+        <v>120863</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>75490</v>
+        <v>73943</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>72017</v>
+        <v>72603</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>70422</v>
+        <v>70602</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>86640</v>
+        <v>86666</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>61795</v>
+        <v>61543</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>32933</v>
+        <v>32382</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>36731</v>
+        <v>35973</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>58508</v>
+        <v>58445</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>36682</v>
+        <v>37874</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>103967</v>
+        <v>104419</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>102969</v>
+        <v>103358</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>142429</v>
+        <v>142908</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>96292</v>
+        <v>95033</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>58452</v>
+        <v>58570</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>68880</v>
+        <v>68907</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>71599</v>
+        <v>71442</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>66946</v>
+        <v>69095</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>21463</v>
+        <v>21039</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>32711</v>
+        <v>33748</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>27391</v>
+        <v>28647</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>39656</v>
+        <v>39463</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>82007</v>
+        <v>80794</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>106143</v>
+        <v>107452</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>104218</v>
+        <v>105313</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>112223</v>
+        <v>112747</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>67370</v>
+        <v>67996</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>86953</v>
+        <v>86681</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>86798</v>
+        <v>87393</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>83129</v>
+        <v>84183</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>36438</v>
+        <v>36649</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>52528</v>
+        <v>52903</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>47012</v>
+        <v>48218</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>51670</v>
+        <v>52405</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>103434</v>
+        <v>102084</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>135627</v>
+        <v>136151</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>129520</v>
+        <v>129806</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>133091</v>
+        <v>132232</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>35026</v>
+        <v>34682</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>33963</v>
+        <v>34074</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>47689</v>
+        <v>47296</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>10602</v>
+        <v>10679</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>7336</v>
+        <v>7826</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>11818</v>
+        <v>11733</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>9498</v>
+        <v>9824</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>10594</v>
+        <v>10714</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>43064</v>
+        <v>43690</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>49149</v>
+        <v>49681</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>58606</v>
+        <v>59143</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>23784</v>
+        <v>23435</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>43387</v>
+        <v>42980</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>45644</v>
+        <v>45693</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>60493</v>
+        <v>60631</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>18662</v>
+        <v>19190</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>19245</v>
+        <v>19336</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>25285</v>
+        <v>25772</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>23205</v>
+        <v>23793</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>18084</v>
+        <v>18176</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>60638</v>
+        <v>60865</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>69096</v>
+        <v>68526</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>81020</v>
+        <v>81195</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>35017</v>
+        <v>34334</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>56844</v>
+        <v>56798</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>53193</v>
+        <v>53217</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>56518</v>
+        <v>57010</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>40862</v>
+        <v>40445</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>9195</v>
+        <v>8639</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>12285</v>
+        <v>12981</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>8866</v>
+        <v>8763</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>9098</v>
+        <v>9097</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>66068</v>
+        <v>64204</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>69390</v>
+        <v>69921</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>67647</v>
+        <v>68391</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>51716</v>
+        <v>52031</v>
       </c>
     </row>
     <row r="27">
@@ -3095,37 +3095,37 @@
         <v>63214</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>68109</v>
+        <v>67268</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>68719</v>
+        <v>69000</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>53189</v>
+        <v>53279</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>21987</v>
+        <v>21676</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>27561</v>
+        <v>26855</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>22530</v>
+        <v>22336</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>17228</v>
+        <v>17385</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>86060</v>
+        <v>84330</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>91324</v>
+        <v>92534</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>88585</v>
+        <v>90208</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>67888</v>
+        <v>67945</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>126513</v>
+        <v>126977</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>111252</v>
+        <v>111911</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>124100</v>
+        <v>123929</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>107832</v>
+        <v>109168</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>38064</v>
+        <v>38719</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>45885</v>
+        <v>45744</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>56732</v>
+        <v>56008</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>75770</v>
+        <v>76969</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>165840</v>
+        <v>166073</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>164359</v>
+        <v>164476</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>184083</v>
+        <v>185336</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>192490</v>
+        <v>193332</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>138206</v>
+        <v>138244</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>133078</v>
+        <v>133787</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>141875</v>
+        <v>142719</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>134785</v>
+        <v>134733</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>58974</v>
+        <v>60289</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>72248</v>
+        <v>71916</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>82918</v>
+        <v>82504</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>97165</v>
+        <v>98760</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>198118</v>
+        <v>195738</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>200409</v>
+        <v>200278</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>220717</v>
+        <v>220634</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>224711</v>
+        <v>224177</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>133519</v>
+        <v>131619</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>136115</v>
+        <v>136534</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>157447</v>
+        <v>157613</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>24570</v>
+        <v>24668</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>47738</v>
+        <v>47591</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>47094</v>
+        <v>46600</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>67744</v>
+        <v>66661</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>20808</v>
+        <v>21387</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>187991</v>
+        <v>186344</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>189469</v>
+        <v>187232</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>231560</v>
+        <v>230811</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>50568</v>
+        <v>49504</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>152032</v>
+        <v>151932</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>161554</v>
+        <v>161984</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>182179</v>
+        <v>181896</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>42987</v>
+        <v>43864</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>71818</v>
+        <v>70647</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>72578</v>
+        <v>70544</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>96412</v>
+        <v>95449</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>37444</v>
+        <v>36604</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>219947</v>
+        <v>218318</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>227998</v>
+        <v>226501</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>269986</v>
+        <v>272879</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>75247</v>
+        <v>75358</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>639461</v>
+        <v>638979</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>640382</v>
+        <v>638648</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>728582</v>
+        <v>728215</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>432318</v>
+        <v>430809</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>201796</v>
+        <v>203268</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>241166</v>
+        <v>239826</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>290505</v>
+        <v>289624</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>237429</v>
+        <v>238106</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>849902</v>
+        <v>845445</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>891489</v>
+        <v>894671</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>1025664</v>
+        <v>1031420</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>683047</v>
+        <v>681769</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>671984</v>
+        <v>672696</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>693599</v>
+        <v>691136</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>775721</v>
+        <v>776323</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>482872</v>
+        <v>485213</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>250649</v>
+        <v>250212</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>293982</v>
+        <v>293139</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>346154</v>
+        <v>346223</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>277978</v>
+        <v>277731</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>915469</v>
+        <v>917606</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>975160</v>
+        <v>976959</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>1110123</v>
+        <v>1108763</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>751808</v>
+        <v>753475</v>
       </c>
     </row>
     <row r="40">
